--- a/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC2.3_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC2.3_TC2.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2263861667619485</v>
+        <v>0.2563157442267372</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2263861667619485, 'ngram_match_score': 0.07150140594142128, 'weighted_ngram_match_score': 0.07753895750699873, 'syntax_match_score': 0.5381944444444444, 'dataflow_match_score': 0.21830985915492956}</t>
+          <t>{'codebleu': 0.2563157442267372, 'ngram_match_score': 0.07150140594142128, 'weighted_ngram_match_score': 0.07753895750699873, 'syntax_match_score': 0.5381944444444444, 'dataflow_match_score': 0.3380281690140845}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
